--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem3/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem3/123/correct_predictions_123.xlsx
@@ -506,12 +506,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aircraft stopped</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,31 +527,31 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+          <t>Impact detected Aircraft stopped Restart aircraft .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Aircraft stopped</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-27</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -566,12 +566,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6-22</t>
+          <t>23-27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem3/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem3/123/correct_predictions_123.xlsx
@@ -506,12 +506,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Aircraft stopped</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,31 +527,31 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Impact detected Aircraft stopped Restart aircraft .</t>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aircraft stopped</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>23-27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -566,12 +566,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23-27</t>
+          <t>6-22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
